--- a/biology/Botanique/Sideritis_hyssopifolia/Sideritis_hyssopifolia.xlsx
+++ b/biology/Botanique/Sideritis_hyssopifolia/Sideritis_hyssopifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sideritis hyssopifolia, dite aussi Crapaudine des Alpes, thé des Alpes, thé des montagnes ou Crapaudine à feuilles d'Hysope, est une espèce de sous-arbrisseaux vivaces de la famille des Lamiacées.
 Son appellation de thé des Alpes peut produire une confusion avec la Dryade à huit pétales (ou Dryade octopétale).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-arbrisseau vivace de la famille des lamiacées (ou labiées), à peine velu. Les feuilles sont longues ou ovales ou en spatule, dentelées ou non. Le pétiole est très court. Fleurs jaune pâle disposées en épis oblongs de 1 cm environ. La tige, comme pour toutes les labiées, est à section quadrangulaire.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pousse dans les rocailles calcaires mais aussi dans les prairies attenantes à ces zones rocheuses dans les Alpes, le Jura et les Pyrénées jusqu'à 1 800 m d'altitude. Dans le massif de la Chartreuse (Dauphiné, Isère et Savoie) on la trouve à partir de 1 500 m et jusqu'à 1 800 m.
 Floraison à 1 800 m en juillet-août. Elle pousse également en Haute-Savoie dans le massif du Bargy dans la zone du col de la Colombière.
@@ -575,9 +591,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante aux échelons mondial, européen et français[1]. En France elle est considérée Vulnérable (VU) en Poitou-Charentes.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante aux échelons mondial, européen et français. En France elle est considérée Vulnérable (VU) en Poitou-Charentes.
 L'espèce est protégée et ne peut être cueillie que pour la consommation personnelle dans la limite de ce qu'une main peut contenir. Pour des utilisations à des fins commerciales une autorisation préfectorale est nécessaire.
 </t>
         </is>
@@ -607,7 +625,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme beaucoup de plantes de montagnes de sa famille, Sideritis hyssopifolia est utilisée pour les liqueurs et les tisanes. Les recettes ressemblent à celles du génépi et du Millepertuis nummulaire (Hypericum nummularium). On cueille la sommité fleurie exclusivement. On en met une quarantaine dans un litre d'eau-de-vie, on laisse macérer quatre à cinq semaines, puis on filtre et on sucre à son goût.
 On dit que cette plante fait partie des nombreuses espèces entrant dans la composition de la liqueur des moines Chartreux appelée "Liqueur de la Grande Chartreuse".
